--- a/Daily Progess Final 2.xlsx
+++ b/Daily Progess Final 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Leetcoding\Neetcode 150\Neetcode-150\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4542F651-85A8-483D-AE01-DF98A9B73F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365384BD-288A-4E00-85B3-248F70E889EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="NeetCode 150" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Question</t>
   </si>
@@ -282,6 +281,66 @@
   </si>
   <si>
     <t>Union Find Algorithm, maintain two arr parent and rank, for each change made, decrement num for each change made and return</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Keep adding nums until the sum gets negative, after that reset. Take the maximum sum like that.</t>
+  </si>
+  <si>
+    <t>Go reverse through the array and update the goal, if you reach the first element then return true</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Insert Intervals</t>
+  </si>
+  <si>
+    <t>Use a new array to store intervals and add according to conditions, focus on when they intersect</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>sort, then Put first element in output array, then check next elements, either merge or add</t>
+  </si>
+  <si>
+    <t>Non overlapping Intervals</t>
+  </si>
+  <si>
+    <t>sort, maintain a variable prevend, iterate and see if there is overlap, if not then proceed, if yes then remove the larger interval (keep prevend to smaller end value)</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Just check consecuetively</t>
+  </si>
+  <si>
+    <t>Meeting Rooms 2</t>
+  </si>
+  <si>
+    <t>Maintain two lists for start and end time, count how many meetings go on at once and take the max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate Image </t>
+  </si>
+  <si>
+    <t>Make four rotations, for every element in outer border then move to inner border</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Define top,bottom,left,right. Go through one side then decrement/increment top,bottom,left,right</t>
+  </si>
+  <si>
+    <t>Set Matrix zeroes</t>
+  </si>
+  <si>
+    <t>use first row and column for storing, use one variable for column for intersection</t>
   </si>
 </sst>
 </file>
@@ -641,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,6 +1150,116 @@
       </c>
       <c r="C40" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
